--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_150__Reeval_Halton_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_150__Reeval_Halton_Modell_1.3.xlsx
@@ -5996,19 +5996,19 @@
                   <c:v>58.7020263671875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.55256652832031</c:v>
+                  <c:v>80.55257415771484</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>38.40417098999023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.34528350830078</c:v>
+                  <c:v>50.34527587890625</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>51.85268402099609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.24775695800781</c:v>
+                  <c:v>70.24777221679688</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>65.53870391845703</c:v>
@@ -6029,10 +6029,10 @@
                   <c:v>34.19600296020508</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.01254272460938</c:v>
+                  <c:v>79.01255798339844</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101.154182434082</c:v>
+                  <c:v>101.1541900634766</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>77.50747680664062</c:v>
@@ -6059,7 +6059,7 @@
                   <c:v>50.01509857177734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>95.58058929443359</c:v>
+                  <c:v>95.58058166503906</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>61.98982238769531</c:v>
@@ -6068,13 +6068,13 @@
                   <c:v>52.51182556152344</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>92.95494079589844</c:v>
+                  <c:v>92.95493316650391</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>55.494873046875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>81.79920959472656</c:v>
+                  <c:v>81.7991943359375</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>73.05732727050781</c:v>
@@ -6092,7 +6092,7 @@
                   <c:v>63.40363311767578</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>80.34153747558594</c:v>
+                  <c:v>80.34154510498047</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>86.95779418945312</c:v>
@@ -6104,13 +6104,13 @@
                   <c:v>80.44976043701172</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>67.81318664550781</c:v>
+                  <c:v>67.81319427490234</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>87.86380004882812</c:v>
+                  <c:v>87.86381530761719</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>37.53350830078125</c:v>
+                  <c:v>37.53351593017578</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>65.27111053466797</c:v>
@@ -6122,16 +6122,16 @@
                   <c:v>62.92239379882812</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>38.29932403564453</c:v>
+                  <c:v>38.29933166503906</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>54.95302581787109</c:v>
+                  <c:v>54.95301818847656</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>79.30913543701172</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>83.08046722412109</c:v>
+                  <c:v>83.08047485351562</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>42.2144775390625</c:v>
@@ -6143,13 +6143,13 @@
                   <c:v>78.92192077636719</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>33.33345031738281</c:v>
+                  <c:v>33.33345413208008</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>88.70505523681641</c:v>
+                  <c:v>88.70506286621094</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>23.44565963745117</c:v>
+                  <c:v>23.44566345214844</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>75.92284393310547</c:v>
@@ -6170,10 +6170,10 @@
                   <c:v>71.11814117431641</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>84.14266967773438</c:v>
+                  <c:v>84.14267730712891</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>96.78607177734375</c:v>
+                  <c:v>96.78605651855469</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>62.97500610351562</c:v>
@@ -6182,7 +6182,7 @@
                   <c:v>72.52214813232422</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>78.57997894287109</c:v>
+                  <c:v>78.57997131347656</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>43.23342895507812</c:v>
@@ -6191,7 +6191,7 @@
                   <c:v>43.90113830566406</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>75.55812835693359</c:v>
+                  <c:v>75.55813598632812</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>80.74378204345703</c:v>
@@ -6200,13 +6200,13 @@
                   <c:v>44.61766052246094</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>46.01729583740234</c:v>
+                  <c:v>46.01728820800781</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>21.16963958740234</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>41.11867904663086</c:v>
+                  <c:v>41.11868286132812</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>72.40412902832031</c:v>
@@ -6224,7 +6224,7 @@
                   <c:v>74.24452972412109</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>77.25321960449219</c:v>
+                  <c:v>77.25320434570312</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>56.53681182861328</c:v>
@@ -6233,7 +6233,7 @@
                   <c:v>21.16963958740234</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>70.8662109375</c:v>
+                  <c:v>70.86621856689453</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>59.29689788818359</c:v>
@@ -6245,13 +6245,13 @@
                   <c:v>47.13772583007812</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>69.63169097900391</c:v>
+                  <c:v>69.63168334960938</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>77.11102294921875</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>52.40736389160156</c:v>
+                  <c:v>52.40737152099609</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>58.09715270996094</c:v>
@@ -6263,7 +6263,7 @@
                   <c:v>78.8634033203125</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>41.95431518554688</c:v>
+                  <c:v>41.95430755615234</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>85.8621826171875</c:v>
@@ -6278,7 +6278,7 @@
                   <c:v>56.42474365234375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>78.85053253173828</c:v>
+                  <c:v>78.85052490234375</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>79.03787231445312</c:v>
@@ -7075,7 +7075,7 @@
         <v>74.8476</v>
       </c>
       <c r="F5">
-        <v>80.55256652832031</v>
+        <v>80.55257415771484</v>
       </c>
       <c r="G5">
         <v>102</v>
@@ -7139,7 +7139,7 @@
         <v>50.1844</v>
       </c>
       <c r="F7">
-        <v>50.34528350830078</v>
+        <v>50.34527587890625</v>
       </c>
       <c r="G7">
         <v>102</v>
@@ -7191,7 +7191,7 @@
         <v>40.1812</v>
       </c>
       <c r="F9">
-        <v>70.24775695800781</v>
+        <v>70.24777221679688</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>80.9817</v>
       </c>
       <c r="F16">
-        <v>79.01254272460938</v>
+        <v>79.01255798339844</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>90.83759999999999</v>
       </c>
       <c r="F17">
-        <v>101.154182434082</v>
+        <v>101.1541900634766</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>83.5823</v>
       </c>
       <c r="F26">
-        <v>95.58058929443359</v>
+        <v>95.58058166503906</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>87.8205</v>
       </c>
       <c r="F29">
-        <v>92.95494079589844</v>
+        <v>92.95493316650391</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>66.861</v>
       </c>
       <c r="F31">
-        <v>81.79920959472656</v>
+        <v>81.7991943359375</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>79.1952</v>
       </c>
       <c r="F37">
-        <v>80.34153747558594</v>
+        <v>80.34154510498047</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>75.4286</v>
       </c>
       <c r="F41">
-        <v>67.81318664550781</v>
+        <v>67.81319427490234</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>91.84520000000001</v>
       </c>
       <c r="F42">
-        <v>87.86380004882812</v>
+        <v>87.86381530761719</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>30.7279</v>
       </c>
       <c r="F43">
-        <v>37.53350830078125</v>
+        <v>37.53351593017578</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>30.2573</v>
       </c>
       <c r="F47">
-        <v>38.29932403564453</v>
+        <v>38.29933166503906</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>56.8273</v>
       </c>
       <c r="F48">
-        <v>54.95302581787109</v>
+        <v>54.95301818847656</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>88.188</v>
       </c>
       <c r="F50">
-        <v>83.08046722412109</v>
+        <v>83.08047485351562</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>42.721</v>
       </c>
       <c r="F54">
-        <v>33.33345031738281</v>
+        <v>33.33345413208008</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>87.46469999999999</v>
       </c>
       <c r="F55">
-        <v>88.70505523681641</v>
+        <v>88.70506286621094</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>41.0705</v>
       </c>
       <c r="F56">
-        <v>23.44565963745117</v>
+        <v>23.44566345214844</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>81.5342</v>
       </c>
       <c r="F63">
-        <v>84.14266967773438</v>
+        <v>84.14267730712891</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>95.8982</v>
       </c>
       <c r="F64">
-        <v>96.78607177734375</v>
+        <v>96.78605651855469</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>78.45269999999999</v>
       </c>
       <c r="F67">
-        <v>78.57997894287109</v>
+        <v>78.57997131347656</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>76.1641</v>
       </c>
       <c r="F70">
-        <v>75.55812835693359</v>
+        <v>75.55813598632812</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>44.719</v>
       </c>
       <c r="F73">
-        <v>46.01729583740234</v>
+        <v>46.01728820800781</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>38.5218</v>
       </c>
       <c r="F75">
-        <v>41.11867904663086</v>
+        <v>41.11868286132812</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>80.995</v>
       </c>
       <c r="F81">
-        <v>77.25321960449219</v>
+        <v>77.25320434570312</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>68.94370000000001</v>
       </c>
       <c r="F84">
-        <v>70.8662109375</v>
+        <v>70.86621856689453</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>71.9828</v>
       </c>
       <c r="F88">
-        <v>69.63169097900391</v>
+        <v>69.63168334960938</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>59.318</v>
       </c>
       <c r="F90">
-        <v>52.40736389160156</v>
+        <v>52.40737152099609</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>45.8769</v>
       </c>
       <c r="F94">
-        <v>41.95431518554688</v>
+        <v>41.95430755615234</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>78.212</v>
       </c>
       <c r="F99">
-        <v>78.85053253173828</v>
+        <v>78.85052490234375</v>
       </c>
     </row>
     <row r="100" spans="1:6">
